--- a/public/excelformats/excel.xlsx
+++ b/public/excelformats/excel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFlow\Dilligent Dexterity\pradesh-library\website\public\excelformats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>QR CODE</t>
   </si>
@@ -32,32 +32,26 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Total Page</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Image URL</t>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Shelf Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,23 +60,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,29 +104,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
+    <cellStyle name="Excel Built-in Accent1" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,59 +421,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="8.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
